--- a/docs/System_Test_Report_template .xlsx
+++ b/docs/System_Test_Report_template .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B5B009-5478-43F2-9457-B4F44B4D9BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BBC64-67B9-478A-A674-2EFDED5BAEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,12 +329,6 @@
     <t>Pytest</t>
   </si>
   <si>
-    <t xml:space="preserve">Get item from DB
-Get all from DB
-Update DB
-</t>
-  </si>
-  <si>
     <t>The database is updated
  and the smart vending machine
  is ready to process and run through
@@ -361,13 +355,20 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get item from DB
+Get all from DB
+Update DB
+Choose Slot
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,9 +1490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1529,9 +1530,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1564,9 +1565,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,9 +1617,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1781,12 +1816,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1833,25 +1868,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="38" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="132" customHeight="1">
+    <row r="3" spans="2:11" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -1915,7 +1950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="137.25">
+    <row r="4" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <f>B3+1</f>
         <v>2</v>
@@ -1946,7 +1981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="137.25">
+    <row r="5" spans="2:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>3</v>
@@ -1977,7 +2012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="198" customHeight="1">
+    <row r="6" spans="2:11" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2008,7 +2043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="76.5">
+    <row r="7" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2039,7 +2074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="137.25">
+    <row r="8" spans="2:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2070,7 +2105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="259.5">
+    <row r="9" spans="2:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2101,7 +2136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="250.5" customHeight="1">
+    <row r="10" spans="2:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2132,7 +2167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="259.5">
+    <row r="11" spans="2:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2163,7 +2198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="167.25">
+    <row r="12" spans="2:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2194,7 +2229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="76.5">
+    <row r="13" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2213,10 +2248,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>64</v>
@@ -2225,38 +2260,38 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="91.5">
+    <row r="14" spans="2:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2273,7 +2308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2290,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2307,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2324,7 +2359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2341,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2358,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" ref="B21:B22" si="1">B20+1</f>
         <v>19</v>
@@ -2375,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2432,34 +2467,34 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -2477,15 +2512,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E81D8C8DDAE8BD44A422697963F06C45" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6816e004dbb89c674e51f5647972552">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b02348f-b4e3-458c-83fc-9e90db0f8029" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6418ca14ac9ee17b8bbf6df78e0c223" ns2:_="">
     <xsd:import namespace="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
@@ -2643,14 +2669,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDB6385-31B2-4574-9AA4-BF13B563A4E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDB6385-31B2-4574-9AA4-BF13B563A4E3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>